--- a/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Calr-Scarf1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H2">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I2">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J2">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>11.3510633642731</v>
+        <v>12.43325566666667</v>
       </c>
       <c r="N2">
-        <v>11.3510633642731</v>
+        <v>37.299767</v>
       </c>
       <c r="O2">
-        <v>0.5517332408826235</v>
+        <v>0.5466477278181461</v>
       </c>
       <c r="P2">
-        <v>0.5517332408826235</v>
+        <v>0.5827022703831348</v>
       </c>
       <c r="Q2">
-        <v>726.7358587263838</v>
+        <v>877.7552003372861</v>
       </c>
       <c r="R2">
-        <v>726.7358587263838</v>
+        <v>7899.796803035575</v>
       </c>
       <c r="S2">
-        <v>0.05567885634477649</v>
+        <v>0.05676725721863903</v>
       </c>
       <c r="T2">
-        <v>0.05567885634477649</v>
+        <v>0.06289231357081117</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,55 +593,55 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H3">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I3">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J3">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>2.85015051932116</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N3">
-        <v>2.85015051932116</v>
+        <v>1.240819</v>
       </c>
       <c r="O3">
-        <v>0.1385352836614226</v>
+        <v>0.01818485587278827</v>
       </c>
       <c r="P3">
-        <v>0.1385352836614226</v>
+        <v>0.01938425107144854</v>
       </c>
       <c r="Q3">
-        <v>182.4768762790669</v>
+        <v>29.199521003102</v>
       </c>
       <c r="R3">
-        <v>182.4768762790669</v>
+        <v>262.7956890279181</v>
       </c>
       <c r="S3">
-        <v>0.01398046299571823</v>
+        <v>0.001888427113627129</v>
       </c>
       <c r="T3">
-        <v>0.01398046299571823</v>
+        <v>0.002092184051246763</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,55 +655,55 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H4">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I4">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J4">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.15114643997294</v>
+        <v>3.416139333333334</v>
       </c>
       <c r="N4">
-        <v>2.15114643997294</v>
+        <v>10.248418</v>
       </c>
       <c r="O4">
-        <v>0.1045592786200954</v>
+        <v>0.150195962710185</v>
       </c>
       <c r="P4">
-        <v>0.1045592786200954</v>
+        <v>0.1601022450471443</v>
       </c>
       <c r="Q4">
-        <v>137.7241237345563</v>
+        <v>241.170466151444</v>
       </c>
       <c r="R4">
-        <v>137.7241237345563</v>
+        <v>2170.534195362996</v>
       </c>
       <c r="S4">
-        <v>0.01055173156594398</v>
+        <v>0.01559727117571887</v>
       </c>
       <c r="T4">
-        <v>0.01055173156594398</v>
+        <v>0.01728018082420583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>64.0235928039789</v>
+        <v>70.597374</v>
       </c>
       <c r="H5">
-        <v>64.0235928039789</v>
+        <v>211.792122</v>
       </c>
       <c r="I5">
-        <v>0.1009162620974321</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J5">
-        <v>0.1009162620974321</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.22110258056103</v>
+        <v>2.259609</v>
       </c>
       <c r="N5">
-        <v>4.22110258056103</v>
+        <v>6.778827</v>
       </c>
       <c r="O5">
-        <v>0.2051721968358585</v>
+        <v>0.09934727948360371</v>
       </c>
       <c r="P5">
-        <v>0.2051721968358585</v>
+        <v>0.1058998004849332</v>
       </c>
       <c r="Q5">
-        <v>270.2501528016639</v>
+        <v>159.522461666766</v>
       </c>
       <c r="R5">
-        <v>270.2501528016639</v>
+        <v>1435.702155000894</v>
       </c>
       <c r="S5">
-        <v>0.02070521119099343</v>
+        <v>0.01031683162926071</v>
       </c>
       <c r="T5">
-        <v>0.02070521119099343</v>
+        <v>0.01142999400844196</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,55 +779,55 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>185.530546848043</v>
+        <v>70.597374</v>
       </c>
       <c r="H6">
-        <v>185.530546848043</v>
+        <v>211.792122</v>
       </c>
       <c r="I6">
-        <v>0.2924398408899263</v>
+        <v>0.1038461413627678</v>
       </c>
       <c r="J6">
-        <v>0.2924398408899263</v>
+        <v>0.1079321580975798</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.3510633642731</v>
+        <v>4.221938</v>
       </c>
       <c r="N6">
-        <v>11.3510633642731</v>
+        <v>8.443875999999999</v>
       </c>
       <c r="O6">
-        <v>0.5517332408826235</v>
+        <v>0.185624174115277</v>
       </c>
       <c r="P6">
-        <v>0.5517332408826235</v>
+        <v>0.1319114330133392</v>
       </c>
       <c r="Q6">
-        <v>2105.968993280375</v>
+        <v>298.057735990812</v>
       </c>
       <c r="R6">
-        <v>2105.968993280375</v>
+        <v>1788.346415944872</v>
       </c>
       <c r="S6">
-        <v>0.1613487811773978</v>
+        <v>0.01927635422552208</v>
       </c>
       <c r="T6">
-        <v>0.1613487811773978</v>
+        <v>0.01423748564287403</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,55 +841,55 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H7">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I7">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J7">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.85015051932116</v>
+        <v>12.43325566666667</v>
       </c>
       <c r="N7">
-        <v>2.85015051932116</v>
+        <v>37.299767</v>
       </c>
       <c r="O7">
-        <v>0.1385352836614226</v>
+        <v>0.5466477278181461</v>
       </c>
       <c r="P7">
-        <v>0.1385352836614226</v>
+        <v>0.5827022703831348</v>
       </c>
       <c r="Q7">
-        <v>528.7899844488886</v>
+        <v>2508.406516689801</v>
       </c>
       <c r="R7">
-        <v>528.7899844488886</v>
+        <v>22575.65865020821</v>
       </c>
       <c r="S7">
-        <v>0.04051323631158723</v>
+        <v>0.162226732336218</v>
       </c>
       <c r="T7">
-        <v>0.04051323631158723</v>
+        <v>0.1797306232422212</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,55 +903,55 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H8">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I8">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J8">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>2.15114643997294</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N8">
-        <v>2.15114643997294</v>
+        <v>1.240819</v>
       </c>
       <c r="O8">
-        <v>0.1045592786200954</v>
+        <v>0.01818485587278827</v>
       </c>
       <c r="P8">
-        <v>0.1045592786200954</v>
+        <v>0.01938425107144854</v>
       </c>
       <c r="Q8">
-        <v>399.1033753584005</v>
+        <v>83.44498413709989</v>
       </c>
       <c r="R8">
-        <v>399.1033753584005</v>
+        <v>751.0048572338991</v>
       </c>
       <c r="S8">
-        <v>0.03057729880322616</v>
+        <v>0.005396656011033357</v>
       </c>
       <c r="T8">
-        <v>0.03057729880322616</v>
+        <v>0.005978942769288335</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,60 +965,60 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>185.530546848043</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H9">
-        <v>185.530546848043</v>
+        <v>605.249321</v>
       </c>
       <c r="I9">
-        <v>0.2924398408899263</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J9">
-        <v>0.2924398408899263</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.22110258056103</v>
+        <v>3.416139333333334</v>
       </c>
       <c r="N9">
-        <v>4.22110258056103</v>
+        <v>10.248418</v>
       </c>
       <c r="O9">
-        <v>0.2051721968358585</v>
+        <v>0.150195962710185</v>
       </c>
       <c r="P9">
-        <v>0.2051721968358585</v>
+        <v>0.1601022450471443</v>
       </c>
       <c r="Q9">
-        <v>783.1434700731733</v>
+        <v>689.2053373137976</v>
       </c>
       <c r="R9">
-        <v>783.1434700731733</v>
+        <v>6202.848035824179</v>
       </c>
       <c r="S9">
-        <v>0.06000052459771508</v>
+        <v>0.04457313000790804</v>
       </c>
       <c r="T9">
-        <v>0.06000052459771508</v>
+        <v>0.04938246810996964</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H10">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I10">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J10">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>11.3510633642731</v>
+        <v>2.259609</v>
       </c>
       <c r="N10">
-        <v>11.3510633642731</v>
+        <v>6.778827</v>
       </c>
       <c r="O10">
-        <v>0.5517332408826235</v>
+        <v>0.09934727948360371</v>
       </c>
       <c r="P10">
-        <v>0.5517332408826235</v>
+        <v>0.1058998004849332</v>
       </c>
       <c r="Q10">
-        <v>1522.075775313777</v>
+        <v>455.875604325163</v>
       </c>
       <c r="R10">
-        <v>1522.075775313777</v>
+        <v>4102.880438926467</v>
       </c>
       <c r="S10">
-        <v>0.1166138114996573</v>
+        <v>0.02948294431122122</v>
       </c>
       <c r="T10">
-        <v>0.1166138114996573</v>
+        <v>0.0326640861204628</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,55 +1089,55 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>134.091029753603</v>
+        <v>201.7497736666667</v>
       </c>
       <c r="H11">
-        <v>134.091029753603</v>
+        <v>605.249321</v>
       </c>
       <c r="I11">
-        <v>0.211359046109143</v>
+        <v>0.2967664989365622</v>
       </c>
       <c r="J11">
-        <v>0.211359046109143</v>
+        <v>0.3084433206756614</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.85015051932116</v>
+        <v>4.221938</v>
       </c>
       <c r="N11">
-        <v>2.85015051932116</v>
+        <v>8.443875999999999</v>
       </c>
       <c r="O11">
-        <v>0.1385352836614226</v>
+        <v>0.185624174115277</v>
       </c>
       <c r="P11">
-        <v>0.1385352836614226</v>
+        <v>0.1319114330133392</v>
       </c>
       <c r="Q11">
-        <v>382.1796180885407</v>
+        <v>851.7750359346993</v>
       </c>
       <c r="R11">
-        <v>382.1796180885407</v>
+        <v>5110.650215608196</v>
       </c>
       <c r="S11">
-        <v>0.02928068540713783</v>
+        <v>0.05508703627018158</v>
       </c>
       <c r="T11">
-        <v>0.02928068540713783</v>
+        <v>0.04068720043371942</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,55 +1151,55 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H12">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I12">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J12">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.15114643997294</v>
+        <v>12.43325566666667</v>
       </c>
       <c r="N12">
-        <v>2.15114643997294</v>
+        <v>37.299767</v>
       </c>
       <c r="O12">
-        <v>0.1045592786200954</v>
+        <v>0.5466477278181461</v>
       </c>
       <c r="P12">
-        <v>0.1045592786200954</v>
+        <v>0.5827022703831348</v>
       </c>
       <c r="Q12">
-        <v>288.4494412867687</v>
+        <v>1746.455140384401</v>
       </c>
       <c r="R12">
-        <v>288.4494412867687</v>
+        <v>15718.09626345961</v>
       </c>
       <c r="S12">
-        <v>0.02209954939100347</v>
+        <v>0.112948881575318</v>
       </c>
       <c r="T12">
-        <v>0.02209954939100347</v>
+        <v>0.1251358058422259</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>134.091029753603</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H13">
-        <v>134.091029753603</v>
+        <v>421.399315</v>
       </c>
       <c r="I13">
-        <v>0.211359046109143</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J13">
-        <v>0.211359046109143</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>4.22110258056103</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N13">
-        <v>4.22110258056103</v>
+        <v>1.240819</v>
       </c>
       <c r="O13">
-        <v>0.2051721968358585</v>
+        <v>0.01818485587278827</v>
       </c>
       <c r="P13">
-        <v>0.2051721968358585</v>
+        <v>0.01938425107144854</v>
       </c>
       <c r="Q13">
-        <v>566.0119917230195</v>
+        <v>58.09780851544279</v>
       </c>
       <c r="R13">
-        <v>566.0119917230195</v>
+        <v>522.880276638985</v>
       </c>
       <c r="S13">
-        <v>0.04336499981134437</v>
+        <v>0.00375737248673442</v>
       </c>
       <c r="T13">
-        <v>0.04336499981134437</v>
+        <v>0.004162784327026625</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1275,122 +1275,122 @@
         <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H14">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I14">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J14">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.3510633642731</v>
+        <v>3.416139333333334</v>
       </c>
       <c r="N14">
-        <v>11.3510633642731</v>
+        <v>10.248418</v>
       </c>
       <c r="O14">
-        <v>0.5517332408826235</v>
+        <v>0.150195962710185</v>
       </c>
       <c r="P14">
-        <v>0.5517332408826235</v>
+        <v>0.1601022450471443</v>
       </c>
       <c r="Q14">
-        <v>2052.405034039873</v>
+        <v>479.8529250037412</v>
       </c>
       <c r="R14">
-        <v>2052.405034039873</v>
+        <v>4318.676325033671</v>
       </c>
       <c r="S14">
-        <v>0.1572449792856953</v>
+        <v>0.03103363490223295</v>
       </c>
       <c r="T14">
-        <v>0.1572449792856953</v>
+        <v>0.03438209265591319</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H15">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I15">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J15">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.85015051932116</v>
+        <v>2.259609</v>
       </c>
       <c r="N15">
-        <v>2.85015051932116</v>
+        <v>6.778827</v>
       </c>
       <c r="O15">
-        <v>0.1385352836614226</v>
+        <v>0.09934727948360371</v>
       </c>
       <c r="P15">
-        <v>0.1385352836614226</v>
+        <v>0.1058998004849332</v>
       </c>
       <c r="Q15">
-        <v>515.3405532064623</v>
+        <v>317.399228255945</v>
       </c>
       <c r="R15">
-        <v>515.3405532064623</v>
+        <v>2856.593054303505</v>
       </c>
       <c r="S15">
-        <v>0.03948280834924839</v>
+        <v>0.02052723085488892</v>
       </c>
       <c r="T15">
-        <v>0.03948280834924839</v>
+        <v>0.0227420718019509</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1399,55 +1399,55 @@
         <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>180.811697386847</v>
+        <v>140.4664383333333</v>
       </c>
       <c r="H16">
-        <v>180.811697386847</v>
+        <v>421.399315</v>
       </c>
       <c r="I16">
-        <v>0.2850018226818199</v>
+        <v>0.2066209659850499</v>
       </c>
       <c r="J16">
-        <v>0.2850018226818199</v>
+        <v>0.2147508465342814</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.15114643997294</v>
+        <v>4.221938</v>
       </c>
       <c r="N16">
-        <v>2.15114643997294</v>
+        <v>8.443875999999999</v>
       </c>
       <c r="O16">
-        <v>0.1045592786200954</v>
+        <v>0.185624174115277</v>
       </c>
       <c r="P16">
-        <v>0.1045592786200954</v>
+        <v>0.1319114330133392</v>
       </c>
       <c r="Q16">
-        <v>388.9524391391805</v>
+        <v>593.0405937241567</v>
       </c>
       <c r="R16">
-        <v>388.9524391391805</v>
+        <v>3558.24356234494</v>
       </c>
       <c r="S16">
-        <v>0.02979958498502342</v>
+        <v>0.03835384616587562</v>
       </c>
       <c r="T16">
-        <v>0.02979958498502342</v>
+        <v>0.02832809190716476</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,60 +1461,60 @@
         <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>180.811697386847</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H17">
-        <v>180.811697386847</v>
+        <v>569.411759</v>
       </c>
       <c r="I17">
-        <v>0.2850018226818199</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J17">
-        <v>0.2850018226818199</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.22110258056103</v>
+        <v>12.43325566666667</v>
       </c>
       <c r="N17">
-        <v>4.22110258056103</v>
+        <v>37.299767</v>
       </c>
       <c r="O17">
-        <v>0.2051721968358585</v>
+        <v>0.5466477278181461</v>
       </c>
       <c r="P17">
-        <v>0.2051721968358585</v>
+        <v>0.5827022703831348</v>
       </c>
       <c r="Q17">
-        <v>763.2247224352398</v>
+        <v>2359.880659751128</v>
       </c>
       <c r="R17">
-        <v>763.2247224352398</v>
+        <v>21238.92593776015</v>
       </c>
       <c r="S17">
-        <v>0.05847445006185278</v>
+        <v>0.1526210865693611</v>
       </c>
       <c r="T17">
-        <v>0.05847445006185278</v>
+        <v>0.1690885504132923</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>25</v>
@@ -1523,60 +1523,60 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H18">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I18">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J18">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>11.3510633642731</v>
+        <v>0.4136063333333334</v>
       </c>
       <c r="N18">
-        <v>11.3510633642731</v>
+        <v>1.240819</v>
       </c>
       <c r="O18">
-        <v>0.5517332408826235</v>
+        <v>0.01818485587278827</v>
       </c>
       <c r="P18">
-        <v>0.5517332408826235</v>
+        <v>0.01938425107144854</v>
       </c>
       <c r="Q18">
-        <v>794.1894552163282</v>
+        <v>78.50410326562455</v>
       </c>
       <c r="R18">
-        <v>794.1894552163282</v>
+        <v>706.536929390621</v>
       </c>
       <c r="S18">
-        <v>0.06084681257509672</v>
+        <v>0.005077113323949399</v>
       </c>
       <c r="T18">
-        <v>0.06084681257509672</v>
+        <v>0.005624922161987525</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>25</v>
@@ -1588,57 +1588,57 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H19">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I19">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J19">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.85015051932116</v>
+        <v>3.416139333333334</v>
       </c>
       <c r="N19">
-        <v>2.85015051932116</v>
+        <v>10.248418</v>
       </c>
       <c r="O19">
-        <v>0.1385352836614226</v>
+        <v>0.150195962710185</v>
       </c>
       <c r="P19">
-        <v>0.1385352836614226</v>
+        <v>0.1601022450471443</v>
       </c>
       <c r="Q19">
-        <v>199.4138712456356</v>
+        <v>648.3966355941402</v>
       </c>
       <c r="R19">
-        <v>199.4138712456356</v>
+        <v>5835.569720347262</v>
       </c>
       <c r="S19">
-        <v>0.01527809059773096</v>
+        <v>0.04193389976878404</v>
       </c>
       <c r="T19">
-        <v>0.01527809059773096</v>
+        <v>0.0464584710046444</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>25</v>
@@ -1650,57 +1650,57 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H20">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I20">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J20">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.15114643997294</v>
+        <v>2.259609</v>
       </c>
       <c r="N20">
-        <v>2.15114643997294</v>
+        <v>6.778827</v>
       </c>
       <c r="O20">
-        <v>0.1045592786200954</v>
+        <v>0.09934727948360371</v>
       </c>
       <c r="P20">
-        <v>0.1045592786200954</v>
+        <v>0.1058998004849332</v>
       </c>
       <c r="Q20">
-        <v>150.5072929669138</v>
+        <v>428.8826451140769</v>
       </c>
       <c r="R20">
-        <v>150.5072929669138</v>
+        <v>3859.943806026693</v>
       </c>
       <c r="S20">
-        <v>0.01153111387489836</v>
+        <v>0.02773722265894375</v>
       </c>
       <c r="T20">
-        <v>0.01153111387489836</v>
+        <v>0.03073000512127829</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>25</v>
@@ -1712,52 +1712,362 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.96608420987231</v>
+        <v>189.8039196666666</v>
       </c>
       <c r="H21">
-        <v>69.96608420987231</v>
+        <v>569.411759</v>
       </c>
       <c r="I21">
-        <v>0.1102830282216789</v>
+        <v>0.2791945869390566</v>
       </c>
       <c r="J21">
-        <v>0.1102830282216789</v>
+        <v>0.2901800095992663</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.22110258056103</v>
+        <v>4.221938</v>
       </c>
       <c r="N21">
-        <v>4.22110258056103</v>
+        <v>8.443875999999999</v>
       </c>
       <c r="O21">
-        <v>0.2051721968358585</v>
+        <v>0.185624174115277</v>
       </c>
       <c r="P21">
-        <v>0.2051721968358585</v>
+        <v>0.1319114330133392</v>
       </c>
       <c r="Q21">
-        <v>295.3340186100423</v>
+        <v>801.3403809896472</v>
       </c>
       <c r="R21">
-        <v>295.3340186100423</v>
+        <v>4808.042285937883</v>
       </c>
       <c r="S21">
-        <v>0.02262701117395283</v>
+        <v>0.05182526461801828</v>
       </c>
       <c r="T21">
-        <v>0.02262701117395283</v>
+        <v>0.03827806089806375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>77.2091405</v>
+      </c>
+      <c r="H22">
+        <v>154.418281</v>
+      </c>
+      <c r="I22">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J22">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>12.43325566666667</v>
+      </c>
+      <c r="N22">
+        <v>37.299767</v>
+      </c>
+      <c r="O22">
+        <v>0.5466477278181461</v>
+      </c>
+      <c r="P22">
+        <v>0.5827022703831348</v>
+      </c>
+      <c r="Q22">
+        <v>959.960983640088</v>
+      </c>
+      <c r="R22">
+        <v>5759.765901840527</v>
+      </c>
+      <c r="S22">
+        <v>0.06208377011861008</v>
+      </c>
+      <c r="T22">
+        <v>0.04585497731458412</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>77.2091405</v>
+      </c>
+      <c r="H23">
+        <v>154.418281</v>
+      </c>
+      <c r="I23">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J23">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.4136063333333334</v>
+      </c>
+      <c r="N23">
+        <v>1.240819</v>
+      </c>
+      <c r="O23">
+        <v>0.01818485587278827</v>
+      </c>
+      <c r="P23">
+        <v>0.01938425107144854</v>
+      </c>
+      <c r="Q23">
+        <v>31.93418950202317</v>
+      </c>
+      <c r="R23">
+        <v>191.605137012139</v>
+      </c>
+      <c r="S23">
+        <v>0.00206528693744397</v>
+      </c>
+      <c r="T23">
+        <v>0.001525417761899289</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>77.2091405</v>
+      </c>
+      <c r="H24">
+        <v>154.418281</v>
+      </c>
+      <c r="I24">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J24">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>3.416139333333334</v>
+      </c>
+      <c r="N24">
+        <v>10.248418</v>
+      </c>
+      <c r="O24">
+        <v>0.150195962710185</v>
+      </c>
+      <c r="P24">
+        <v>0.1601022450471443</v>
+      </c>
+      <c r="Q24">
+        <v>263.7571817549097</v>
+      </c>
+      <c r="R24">
+        <v>1582.543090529458</v>
+      </c>
+      <c r="S24">
+        <v>0.0170580268555411</v>
+      </c>
+      <c r="T24">
+        <v>0.01259903245241118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>77.2091405</v>
+      </c>
+      <c r="H25">
+        <v>154.418281</v>
+      </c>
+      <c r="I25">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J25">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.259609</v>
+      </c>
+      <c r="N25">
+        <v>6.778827</v>
+      </c>
+      <c r="O25">
+        <v>0.09934727948360371</v>
+      </c>
+      <c r="P25">
+        <v>0.1058998004849332</v>
+      </c>
+      <c r="Q25">
+        <v>174.4624687560645</v>
+      </c>
+      <c r="R25">
+        <v>1046.774812536387</v>
+      </c>
+      <c r="S25">
+        <v>0.01128305002928911</v>
+      </c>
+      <c r="T25">
+        <v>0.008333643432799199</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>77.2091405</v>
+      </c>
+      <c r="H26">
+        <v>154.418281</v>
+      </c>
+      <c r="I26">
+        <v>0.1135718067765637</v>
+      </c>
+      <c r="J26">
+        <v>0.07869366509321105</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>4.221938</v>
+      </c>
+      <c r="N26">
+        <v>8.443875999999999</v>
+      </c>
+      <c r="O26">
+        <v>0.185624174115277</v>
+      </c>
+      <c r="P26">
+        <v>0.1319114330133392</v>
+      </c>
+      <c r="Q26">
+        <v>325.972204224289</v>
+      </c>
+      <c r="R26">
+        <v>1303.888816897156</v>
+      </c>
+      <c r="S26">
+        <v>0.02108167283567946</v>
+      </c>
+      <c r="T26">
+        <v>0.01038059413151726</v>
       </c>
     </row>
   </sheetData>
